--- a/new-stats/pafos-fc.xlsx
+++ b/new-stats/pafos-fc.xlsx
@@ -518,19 +518,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>31/08/2025</t>
+          <t>30/01/2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>APOEL</t>
+          <t>Ypsonas</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -543,27 +543,27 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="P2" t="n">
         <v>3</v>
@@ -572,32 +572,32 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>13/09/2025</t>
+          <t>31/08/2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>APOEL</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>Pafos</t>
         </is>
       </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Apollon</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -606,48 +606,48 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
+        <v>2</v>
+      </c>
+      <c r="P3" t="n">
         <v>3</v>
-      </c>
-      <c r="P3" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>21/09/2025</t>
+          <t>13/09/2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Omonia Aradippou</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Apollon</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -657,55 +657,55 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
+          <t>21/09/2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Omonia Aradippou</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Pafos</t>
         </is>
       </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Paralimni</t>
-        </is>
-      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N5" t="n">
+        <v>8</v>
+      </c>
+      <c r="O5" t="n">
         <v>6</v>
-      </c>
-      <c r="O5" t="n">
-        <v>5</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -734,7 +734,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>27/09/2025</t>
+          <t>24/09/2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -743,68 +743,68 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Paralimni</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Ol. Nicosia</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>1</v>
-      </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N6" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="O6" t="n">
         <v>5</v>
       </c>
       <c r="P6" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>05/10/2025</t>
+          <t>27/09/2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AEK Larnaca</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Ol. Nicosia</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -813,13 +813,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>1</v>
@@ -827,97 +827,97 @@
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17/10/2025</t>
+          <t>05/10/2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>AEK Larnaca</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Pafos</t>
         </is>
       </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Achnas</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="O8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>27/10/2025</t>
+          <t>17/10/2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Omonia</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>Achnas</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -927,51 +927,51 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="N9" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="P9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02/11/2025</t>
+          <t>27/10/2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Omonia</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Pafos</t>
         </is>
       </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AEL Limassol</t>
-        </is>
-      </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -984,48 +984,48 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="n">
+        <v>15</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" t="n">
         <v>8</v>
-      </c>
-      <c r="N10" t="n">
-        <v>7</v>
-      </c>
-      <c r="O10" t="n">
-        <v>2</v>
-      </c>
-      <c r="P10" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>09/11/2025</t>
+          <t>02/11/2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Anorthosis</t>
+          <t>Pafos</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Pafos</t>
+          <t>AEL Limassol</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -1038,12 +1038,12 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="N11" t="n">
         <v>7</v>
@@ -1052,80 +1052,116 @@
         <v>2</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>21/11/2025</t>
+          <t>09/11/2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>Anorthosis</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Pafos</t>
         </is>
       </c>
-      <c r="C12" t="n">
-        <v>2</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Aris Limassol</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="n">
         <v>7</v>
       </c>
-      <c r="N12" t="n">
-        <v>4</v>
-      </c>
       <c r="O12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>21/11/2025</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pafos</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Aris Limassol</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
+      <c r="M13" t="n">
+        <v>7</v>
+      </c>
+      <c r="N13" t="n">
+        <v>4</v>
+      </c>
+      <c r="O13" t="n">
+        <v>5</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>

--- a/new-stats/pafos-fc.xlsx
+++ b/new-stats/pafos-fc.xlsx
@@ -1164,22 +1164,58 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>05/12/2025</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Pafos</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>4</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Chloraka</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
+      <c r="M14" t="n">
+        <v>11</v>
+      </c>
+      <c r="N14" t="n">
+        <v>8</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>

--- a/new-stats/pafos-fc.xlsx
+++ b/new-stats/pafos-fc.xlsx
@@ -1218,22 +1218,58 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>14/12/2025</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Paralimni</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Pafos</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
+      <c r="M15" t="n">
+        <v>19</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>10</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
